--- a/biology/Zoologie/Dromasauria/Dromasauria.xlsx
+++ b/biology/Zoologie/Dromasauria/Dromasauria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dromasauria forment un infra-ordre paraphylétique éteint  de synapsides anomodontes du Permien moyen du sud de l'Afrique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils étaient petits avec des jambes minces et de longues queues. Leurs crânes étaient courts, mais les orbites étaient grandes.
 </t>
@@ -542,10 +556,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dromasauria étaient autrefois considérés comme un groupe important d’anomodontes basaux avec l’infra-ordre des Venyukovioidea. Les Dromasauria inclut trois genre : Galepus, Galechirus et Galeops, tous originaires d’Afrique australe.
-Ci-dessous un cladogramme basé sur les analyses phylogénétiques de Modesto and Rubidge (2000)[1], Liu et al. (2009)[2], et Cisneros et al. (2011)[3], qui montre la paraphylie du groupe des Dromasauria :
+Ci-dessous un cladogramme basé sur les analyses phylogénétiques de Modesto and Rubidge (2000), Liu et al. (2009), et Cisneros et al. (2011), qui montre la paraphylie du groupe des Dromasauria :
 * = Dromasauria
 </t>
         </is>
